--- a/biology/Médecine/Mycobacteriales/Mycobacteriales.xlsx
+++ b/biology/Médecine/Mycobacteriales/Mycobacteriales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Mycobacteriales sont un ordre de bactéries à Gram positif de la classe des Actinomycetes. Il comprend plusieurs genres dont certaines espèces sont des pathogènes humains tels que Corynebacterium, Mycobacterium ou encore Nocardia.
 </t>
@@ -511,10 +523,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ordre des Mycobactériales a été décrit en 1924 par Janke[1] et amendé par Gupta et al. en 2019[2]. Les familles membres de cet ordre forment un clade monophylétique dans les arbres phylogénétiques basés sur l'analyse du gène de l'ARNr 16S et sur de grands sets de données de séquences protéiques[2].
-Le genre type de cet ordre est le genre Mycobacterium (Lehmann and Neumann, 1896) (Approved Lists 1980) amendé par Gupta et al. en 2018[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ordre des Mycobactériales a été décrit en 1924 par Janke et amendé par Gupta et al. en 2019. Les familles membres de cet ordre forment un clade monophylétique dans les arbres phylogénétiques basés sur l'analyse du gène de l'ARNr 16S et sur de grands sets de données de séquences protéiques.
+Le genre type de cet ordre est le genre Mycobacterium (Lehmann and Neumann, 1896) (Approved Lists 1980) amendé par Gupta et al. en 2018.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taxonomie actuellement[Quand ?] acceptée est basée sur la LPSN[3],[4]. La phylogénie est basée sur l'analyse du génome entier des bactéries appartenant aux familles comprises dans cet ordre[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taxonomie actuellement[Quand ?] acceptée est basée sur la LPSN,. La phylogénie est basée sur l'analyse du génome entier des bactéries appartenant aux familles comprises dans cet ordre.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste de familles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon la LPSN  (26 novembre 2022)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (26 novembre 2022) :
 Corynebacteriaceae Lehmann &amp; Neumann 1907 (Approved Lists 1980)
 Dietziaceae Rainey et al. 1997
 Gordoniaceae Rainey et al. 1997
